--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>id</t>
   </si>
@@ -1187,9 +1187,6 @@
   </si>
   <si>
     <t>Source: Inform (Index for Risk Management) v 3.0.3</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1574,32 +1571,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13">
@@ -1615,11 +1612,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1195,7 +1195,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -1201,7 +1201,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1614,6 +1617,11 @@
         <v>397</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -190,82 +190,82 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -889,7 +889,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -901,7 +901,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1069,7 +1069,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1108,18 +1108,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1210,7 +1210,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2039,7 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2053,7 +2053,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -2067,7 +2067,7 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="32">
@@ -2081,7 +2081,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2095,7 +2095,7 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
@@ -2109,7 +2109,7 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2123,7 +2123,7 @@
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36">
@@ -2137,7 +2137,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="37">
@@ -2151,7 +2151,7 @@
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
@@ -2165,7 +2165,7 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="39">
@@ -2179,7 +2179,7 @@
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
@@ -2193,7 +2193,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="41">
@@ -2207,7 +2207,7 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -4181,7 +4181,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="183">
@@ -4195,7 +4195,7 @@
         <v>2015</v>
       </c>
       <c r="D183" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -4654,7 +4654,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -4665,7 +4665,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -4676,7 +4676,7 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="32">
@@ -4687,7 +4687,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -4698,7 +4698,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
@@ -4709,7 +4709,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4720,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36">
@@ -4731,7 +4731,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="37">
@@ -4742,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
@@ -4753,7 +4753,7 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="39">
@@ -4764,7 +4764,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
@@ -4775,7 +4775,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="41">
@@ -4786,7 +4786,7 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -6337,7 +6337,7 @@
         <v>365</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="183">
@@ -6348,7 +6348,7 @@
         <v>367</v>
       </c>
       <c r="C183" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -28,358 +28,1090 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
@@ -388,720 +1120,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
@@ -1120,10 +1138,10 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VE</t>
@@ -1138,28 +1156,10 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1665,7 +1665,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
@@ -1679,7 +1679,7 @@
         <v>2015</v>
       </c>
       <c r="D3" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -1693,7 +1693,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1707,7 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1721,7 +1721,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -1749,7 +1749,7 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1763,7 +1763,7 @@
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1777,7 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -1805,7 +1805,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -1819,7 +1819,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -1847,7 +1847,7 @@
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1861,7 +1861,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +1875,7 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
@@ -1889,7 +1889,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
@@ -1917,7 +1917,7 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
@@ -1931,7 +1931,7 @@
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
@@ -1945,7 +1945,7 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1959,7 +1959,7 @@
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -1973,7 +1973,7 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="25">
@@ -1987,7 +1987,7 @@
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
@@ -2001,7 +2001,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -2015,7 +2015,7 @@
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
@@ -2029,7 +2029,7 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -2043,7 +2043,7 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2057,7 +2057,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -2071,7 +2071,7 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="32">
@@ -2085,7 +2085,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2099,7 +2099,7 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
@@ -2113,7 +2113,7 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2141,7 +2141,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="37">
@@ -2155,7 +2155,7 @@
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
@@ -2169,7 +2169,7 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="39">
@@ -2183,7 +2183,7 @@
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
@@ -2211,7 +2211,7 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -2225,7 +2225,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
@@ -2239,7 +2239,7 @@
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
@@ -2253,7 +2253,7 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
@@ -2267,7 +2267,7 @@
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2295,7 +2295,7 @@
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="49">
@@ -2323,7 +2323,7 @@
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="50">
@@ -2337,7 +2337,7 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="51">
@@ -2351,7 +2351,7 @@
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2379,7 +2379,7 @@
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="54">
@@ -2393,7 +2393,7 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2407,7 +2407,7 @@
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
@@ -2421,7 +2421,7 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -2435,7 +2435,7 @@
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
@@ -2449,7 +2449,7 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="59">
@@ -2463,7 +2463,7 @@
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2477,7 +2477,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
@@ -2491,7 +2491,7 @@
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="62">
@@ -2505,7 +2505,7 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
@@ -2533,7 +2533,7 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="65">
@@ -2561,7 +2561,7 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="67">
@@ -2575,7 +2575,7 @@
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="68">
@@ -2589,7 +2589,7 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="69">
@@ -2603,7 +2603,7 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
@@ -2645,7 +2645,7 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="73">
@@ -2659,7 +2659,7 @@
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="74">
@@ -2673,7 +2673,7 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="75">
@@ -2687,7 +2687,7 @@
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="76">
@@ -2701,7 +2701,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="77">
@@ -2715,7 +2715,7 @@
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="78">
@@ -2729,7 +2729,7 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2743,7 +2743,7 @@
         <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>8.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
@@ -2757,7 +2757,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2771,7 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
@@ -2785,7 +2785,7 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
@@ -2799,7 +2799,7 @@
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
@@ -2813,7 +2813,7 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="85">
@@ -2841,7 +2841,7 @@
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="87">
@@ -2869,7 +2869,7 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
@@ -2883,7 +2883,7 @@
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="90">
@@ -2897,7 +2897,7 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="91">
@@ -2911,7 +2911,7 @@
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="92">
@@ -2925,7 +2925,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="93">
@@ -2939,7 +2939,7 @@
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2953,7 +2953,7 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="95">
@@ -2967,7 +2967,7 @@
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2981,7 +2981,7 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
@@ -2995,7 +2995,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
@@ -3009,7 +3009,7 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="99">
@@ -3023,7 +3023,7 @@
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="100">
@@ -3037,7 +3037,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="101">
@@ -3051,7 +3051,7 @@
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="102">
@@ -3065,7 +3065,7 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="103">
@@ -3079,7 +3079,7 @@
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="104">
@@ -3093,7 +3093,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="105">
@@ -3107,7 +3107,7 @@
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
@@ -3121,7 +3121,7 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="107">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3149,7 +3149,7 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
@@ -3163,7 +3163,7 @@
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="110">
@@ -3177,7 +3177,7 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="111">
@@ -3191,7 +3191,7 @@
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="112">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="113">
@@ -3219,7 +3219,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="114">
@@ -3247,7 +3247,7 @@
         <v>2015</v>
       </c>
       <c r="D115" t="n">
-        <v>9.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="116">
@@ -3261,7 +3261,7 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="117">
@@ -3275,7 +3275,7 @@
         <v>2015</v>
       </c>
       <c r="D117" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="118">
@@ -3289,7 +3289,7 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="119">
@@ -3303,7 +3303,7 @@
         <v>2015</v>
       </c>
       <c r="D119" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="120">
@@ -3317,7 +3317,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
@@ -3331,7 +3331,7 @@
         <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="122">
@@ -3345,7 +3345,7 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3359,7 +3359,7 @@
         <v>2015</v>
       </c>
       <c r="D123" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="124">
@@ -3373,7 +3373,7 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="125">
@@ -3387,7 +3387,7 @@
         <v>2015</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="126">
@@ -3401,7 +3401,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="127">
@@ -3415,7 +3415,7 @@
         <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
@@ -3429,7 +3429,7 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>5.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="129">
@@ -3443,7 +3443,7 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
@@ -3457,7 +3457,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="131">
@@ -3471,7 +3471,7 @@
         <v>2015</v>
       </c>
       <c r="D131" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="132">
@@ -3485,7 +3485,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="133">
@@ -3499,7 +3499,7 @@
         <v>2015</v>
       </c>
       <c r="D133" t="n">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
@@ -3513,7 +3513,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="135">
@@ -3527,7 +3527,7 @@
         <v>2015</v>
       </c>
       <c r="D135" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="136">
@@ -3555,7 +3555,7 @@
         <v>2015</v>
       </c>
       <c r="D137" t="n">
-        <v>3.7</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="138">
@@ -3569,7 +3569,7 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>9.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="139">
@@ -3583,7 +3583,7 @@
         <v>2015</v>
       </c>
       <c r="D139" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="140">
@@ -3597,7 +3597,7 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3611,7 +3611,7 @@
         <v>2015</v>
       </c>
       <c r="D141" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="142">
@@ -3625,7 +3625,7 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="143">
@@ -3639,7 +3639,7 @@
         <v>2015</v>
       </c>
       <c r="D143" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="144">
@@ -3653,7 +3653,7 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="145">
@@ -3667,7 +3667,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="146">
@@ -3681,7 +3681,7 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="147">
@@ -3695,7 +3695,7 @@
         <v>2015</v>
       </c>
       <c r="D147" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="148">
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3723,7 +3723,7 @@
         <v>2015</v>
       </c>
       <c r="D149" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="150">
@@ -3737,7 +3737,7 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="151">
@@ -3751,7 +3751,7 @@
         <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="152">
@@ -3779,7 +3779,7 @@
         <v>2015</v>
       </c>
       <c r="D153" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="154">
@@ -3793,7 +3793,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3807,7 +3807,7 @@
         <v>2015</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="156">
@@ -3835,7 +3835,7 @@
         <v>2015</v>
       </c>
       <c r="D157" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="158">
@@ -3849,7 +3849,7 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="159">
@@ -3863,7 +3863,7 @@
         <v>2015</v>
       </c>
       <c r="D159" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="160">
@@ -3877,7 +3877,7 @@
         <v>2015</v>
       </c>
       <c r="D160" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="161">
@@ -3891,7 +3891,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="162">
@@ -3905,7 +3905,7 @@
         <v>2015</v>
       </c>
       <c r="D162" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="163">
@@ -3919,7 +3919,7 @@
         <v>2015</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="164">
@@ -3933,7 +3933,7 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="165">
@@ -3947,7 +3947,7 @@
         <v>2015</v>
       </c>
       <c r="D165" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
@@ -3961,7 +3961,7 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="167">
@@ -3975,7 +3975,7 @@
         <v>2015</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="168">
@@ -3989,7 +3989,7 @@
         <v>2015</v>
       </c>
       <c r="D168" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="169">
@@ -4003,7 +4003,7 @@
         <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="170">
@@ -4017,7 +4017,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="171">
@@ -4031,7 +4031,7 @@
         <v>2015</v>
       </c>
       <c r="D171" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="172">
@@ -4045,7 +4045,7 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="173">
@@ -4059,7 +4059,7 @@
         <v>2015</v>
       </c>
       <c r="D173" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="174">
@@ -4087,7 +4087,7 @@
         <v>2015</v>
       </c>
       <c r="D175" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="176">
@@ -4115,7 +4115,7 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
@@ -4129,7 +4129,7 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -4143,7 +4143,7 @@
         <v>2015</v>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="180">
@@ -4157,7 +4157,7 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="181">
@@ -4171,7 +4171,7 @@
         <v>2015</v>
       </c>
       <c r="D181" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="182">
@@ -4185,7 +4185,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4199,7 +4199,7 @@
         <v>2015</v>
       </c>
       <c r="D183" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="184">
@@ -4213,7 +4213,7 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="185">
@@ -4227,7 +4227,7 @@
         <v>2015</v>
       </c>
       <c r="D185" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="186">
@@ -4241,7 +4241,7 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="187">
@@ -4269,7 +4269,7 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="189">
@@ -4283,7 +4283,7 @@
         <v>2015</v>
       </c>
       <c r="D189" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="190">
@@ -4297,7 +4297,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="191">
@@ -4347,6 +4347,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4354,79 +4357,109 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.9</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.9</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.7</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>3.5</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.8</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.9</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>2.5</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>4.4</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4434,23 +4467,32 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>3.5</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -4458,167 +4500,230 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.6</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>2.4</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>3.2</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.2</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>2.7</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>3.9</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.2</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>3.8</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>4.1</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>3.4</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>4.7</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>2.5</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.5</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>4.4</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>6.1</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>3.2</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>1.1</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>1.3</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>2.2</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>1.5</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -4626,39 +4731,54 @@
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>2.6</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>7.9</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>5.8</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>4.9</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -4666,47 +4786,65 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>2</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>2.5</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>2</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.8</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>4.6</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4714,47 +4852,65 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>2.2</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>7.1</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>3.2</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>7</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.6</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -4762,87 +4918,120 @@
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>2.8</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>4.1</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>4.2</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>6.8</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>1.4</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>3.1</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>1.4</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>2.1</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>3.4</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -4850,15 +5039,21 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>1.5</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4866,39 +5061,54 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>1.2</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>4.3</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>6.8</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -4906,7 +5116,10 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -4914,111 +5127,153 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>5.3</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>3.2</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>6.1</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>2.9</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>7.5</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>1.9</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>3.1</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>8.2</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>3.5</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>7</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>1.4</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>3.4</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>5.1</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5026,15 +5281,21 @@
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>8.4</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -5042,215 +5303,296 @@
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>5.4</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>5</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>1.5</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>1.9</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>5.2</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>3.4</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>4.2</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>1.9</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>3.6</v>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>4.7</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>4.7</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>4.8</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>1.9</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>6.4</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.9</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>2</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>1.4</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>0.7</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>4.5</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>2.9</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>3.8</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>2.4</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>5.6</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>0.6</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>2.8</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -5258,175 +5600,241 @@
       <c r="A115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="n">
-        <v>9.1</v>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="n">
-        <v>2.8</v>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="n">
-        <v>3.9</v>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="n">
-        <v>0</v>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="n">
-        <v>5.7</v>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="n">
-        <v>0.3</v>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="n">
-        <v>3.3</v>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="n">
-        <v>7.5</v>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="n">
-        <v>3.4</v>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="n">
-        <v>5.6</v>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="n">
-        <v>2.7</v>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>252</v>
       </c>
-      <c r="B126" t="n">
-        <v>3.1</v>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="n">
-        <v>2.4</v>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="n">
-        <v>5.3</v>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>258</v>
       </c>
-      <c r="B129" t="n">
-        <v>2</v>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="n">
-        <v>0.2</v>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="n">
-        <v>6.8</v>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>264</v>
       </c>
-      <c r="B132" t="n">
-        <v>1.1</v>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>266</v>
       </c>
-      <c r="B133" t="n">
-        <v>6.9</v>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
         <v>268</v>
       </c>
-      <c r="B134" t="n">
-        <v>3.4</v>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>270</v>
       </c>
-      <c r="B135" t="n">
-        <v>3.2</v>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
         <v>272</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="n">
         <v>7.7</v>
       </c>
     </row>
@@ -5434,127 +5842,175 @@
       <c r="A137" t="s">
         <v>274</v>
       </c>
-      <c r="B137" t="n">
-        <v>3.7</v>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
         <v>276</v>
       </c>
-      <c r="B138" t="n">
-        <v>9.3</v>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
         <v>278</v>
       </c>
-      <c r="B139" t="n">
-        <v>7.1</v>
+      <c r="B139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
         <v>280</v>
       </c>
-      <c r="B140" t="n">
-        <v>2.3</v>
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>282</v>
       </c>
-      <c r="B141" t="n">
-        <v>2.4</v>
+      <c r="B141" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>284</v>
       </c>
-      <c r="B142" t="n">
-        <v>2.9</v>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>286</v>
       </c>
-      <c r="B143" t="n">
-        <v>2.3</v>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
         <v>288</v>
       </c>
-      <c r="B144" t="n">
-        <v>2.8</v>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
         <v>290</v>
       </c>
-      <c r="B145" t="n">
-        <v>1</v>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
         <v>292</v>
       </c>
-      <c r="B146" t="n">
-        <v>4.8</v>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
         <v>294</v>
       </c>
-      <c r="B147" t="n">
-        <v>4.4</v>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>296</v>
       </c>
-      <c r="B148" t="n">
-        <v>4.7</v>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>298</v>
       </c>
-      <c r="B149" t="n">
-        <v>2.9</v>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
         <v>300</v>
       </c>
-      <c r="B150" t="n">
-        <v>1.9</v>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" t="n">
-        <v>4.7</v>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>304</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5562,31 +6018,43 @@
       <c r="A153" t="s">
         <v>306</v>
       </c>
-      <c r="B153" t="n">
-        <v>4.2</v>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>308</v>
       </c>
-      <c r="B154" t="n">
-        <v>0.9</v>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
         <v>310</v>
       </c>
-      <c r="B155" t="n">
-        <v>0</v>
+      <c r="B155" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
         <v>312</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -5594,143 +6062,197 @@
       <c r="A157" t="s">
         <v>314</v>
       </c>
-      <c r="B157" t="n">
-        <v>2.7</v>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
         <v>316</v>
       </c>
-      <c r="B158" t="n">
-        <v>1.2</v>
+      <c r="B158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
         <v>318</v>
       </c>
-      <c r="B159" t="n">
-        <v>2.8</v>
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>320</v>
       </c>
-      <c r="B160" t="n">
-        <v>5.6</v>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
         <v>322</v>
       </c>
-      <c r="B161" t="n">
-        <v>1.1</v>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
         <v>324</v>
       </c>
-      <c r="B162" t="n">
-        <v>2.9</v>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
         <v>326</v>
       </c>
-      <c r="B163" t="n">
-        <v>0</v>
+      <c r="B163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
         <v>328</v>
       </c>
-      <c r="B164" t="n">
-        <v>5.9</v>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
         <v>330</v>
       </c>
-      <c r="B165" t="n">
-        <v>4.4</v>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
         <v>332</v>
       </c>
-      <c r="B166" t="n">
-        <v>1.7</v>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
         <v>334</v>
       </c>
-      <c r="B167" t="n">
-        <v>3</v>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
         <v>336</v>
       </c>
-      <c r="B168" t="n">
-        <v>1.2</v>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
         <v>338</v>
       </c>
-      <c r="B169" t="n">
-        <v>5.9</v>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
         <v>340</v>
       </c>
-      <c r="B170" t="n">
-        <v>5.5</v>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>342</v>
       </c>
-      <c r="B171" t="n">
-        <v>4.9</v>
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
         <v>344</v>
       </c>
-      <c r="B172" t="n">
-        <v>4</v>
+      <c r="B172" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
         <v>346</v>
       </c>
-      <c r="B173" t="n">
-        <v>2.4</v>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>348</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -5738,15 +6260,21 @@
       <c r="A175" t="s">
         <v>350</v>
       </c>
-      <c r="B175" t="n">
-        <v>6.7</v>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
         <v>352</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -5754,87 +6282,120 @@
       <c r="A177" t="s">
         <v>354</v>
       </c>
-      <c r="B177" t="n">
-        <v>0.3</v>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
         <v>356</v>
       </c>
-      <c r="B178" t="n">
-        <v>4.1</v>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>358</v>
       </c>
-      <c r="B179" t="n">
-        <v>3</v>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
         <v>360</v>
       </c>
-      <c r="B180" t="n">
-        <v>3.2</v>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
         <v>362</v>
       </c>
-      <c r="B181" t="n">
-        <v>7.6</v>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
         <v>364</v>
       </c>
-      <c r="B182" t="n">
-        <v>1.7</v>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
         <v>366</v>
       </c>
-      <c r="B183" t="n">
-        <v>5.9</v>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
         <v>368</v>
       </c>
-      <c r="B184" t="n">
-        <v>1.7</v>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
         <v>370</v>
       </c>
-      <c r="B185" t="n">
-        <v>4.1</v>
+      <c r="B185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
         <v>372</v>
       </c>
-      <c r="B186" t="n">
-        <v>7.7</v>
+      <c r="B186" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
         <v>374</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" t="n">
         <v>5.4</v>
       </c>
     </row>
@@ -5842,31 +6403,43 @@
       <c r="A188" t="s">
         <v>376</v>
       </c>
-      <c r="B188" t="n">
-        <v>2.3</v>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
         <v>378</v>
       </c>
-      <c r="B189" t="n">
-        <v>2.1</v>
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
         <v>380</v>
       </c>
-      <c r="B190" t="n">
-        <v>3.4</v>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
         <v>382</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5874,7 +6447,10 @@
       <c r="A192" t="s">
         <v>384</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -28,358 +28,1090 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
@@ -388,720 +1120,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
@@ -1120,10 +1138,10 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VE</t>
@@ -1138,28 +1156,10 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1665,7 +1665,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
@@ -1679,7 +1679,7 @@
         <v>2015</v>
       </c>
       <c r="D3" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -1693,7 +1693,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1707,7 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1721,7 +1721,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -1749,7 +1749,7 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1763,7 +1763,7 @@
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1777,7 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -1805,7 +1805,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -1819,7 +1819,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -1847,7 +1847,7 @@
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1861,7 +1861,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +1875,7 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
@@ -1889,7 +1889,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
@@ -1917,7 +1917,7 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
@@ -1931,7 +1931,7 @@
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
@@ -1945,7 +1945,7 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1959,7 +1959,7 @@
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -1973,7 +1973,7 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="25">
@@ -1987,7 +1987,7 @@
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
@@ -2001,7 +2001,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -2015,7 +2015,7 @@
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
@@ -2029,7 +2029,7 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -2043,7 +2043,7 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -2057,7 +2057,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2071,7 +2071,7 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="32">
@@ -2085,7 +2085,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="33">
@@ -2099,7 +2099,7 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2113,7 +2113,7 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="35">
@@ -2127,7 +2127,7 @@
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2141,7 +2141,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
@@ -2183,7 +2183,7 @@
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="40">
@@ -2197,7 +2197,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41">
@@ -2211,7 +2211,7 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="42">
@@ -2225,7 +2225,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
@@ -2239,7 +2239,7 @@
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
@@ -2253,7 +2253,7 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
@@ -2267,7 +2267,7 @@
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2295,7 +2295,7 @@
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="49">
@@ -2323,7 +2323,7 @@
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="50">
@@ -2337,7 +2337,7 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="51">
@@ -2351,7 +2351,7 @@
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2379,7 +2379,7 @@
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="54">
@@ -2393,7 +2393,7 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2407,7 +2407,7 @@
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
@@ -2421,7 +2421,7 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -2435,7 +2435,7 @@
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
@@ -2449,7 +2449,7 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="59">
@@ -2463,7 +2463,7 @@
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2477,7 +2477,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
@@ -2491,7 +2491,7 @@
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="62">
@@ -2505,7 +2505,7 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
@@ -2533,7 +2533,7 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="65">
@@ -2561,7 +2561,7 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="67">
@@ -2575,7 +2575,7 @@
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="68">
@@ -2589,7 +2589,7 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="69">
@@ -2603,7 +2603,7 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
@@ -2645,7 +2645,7 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="73">
@@ -2659,7 +2659,7 @@
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="74">
@@ -2673,7 +2673,7 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="75">
@@ -2687,7 +2687,7 @@
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="76">
@@ -2701,7 +2701,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="77">
@@ -2715,7 +2715,7 @@
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="78">
@@ -2729,7 +2729,7 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2743,7 +2743,7 @@
         <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>8.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
@@ -2757,7 +2757,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2771,7 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
@@ -2785,7 +2785,7 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
@@ -2799,7 +2799,7 @@
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
@@ -2813,7 +2813,7 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="85">
@@ -2841,7 +2841,7 @@
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="87">
@@ -2869,7 +2869,7 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
@@ -2883,7 +2883,7 @@
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="90">
@@ -2897,7 +2897,7 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="91">
@@ -2911,7 +2911,7 @@
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="92">
@@ -2925,7 +2925,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="93">
@@ -2939,7 +2939,7 @@
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2953,7 +2953,7 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="95">
@@ -2967,7 +2967,7 @@
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2981,7 +2981,7 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
@@ -2995,7 +2995,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
@@ -3009,7 +3009,7 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="99">
@@ -3023,7 +3023,7 @@
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="100">
@@ -3037,7 +3037,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="101">
@@ -3051,7 +3051,7 @@
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="102">
@@ -3065,7 +3065,7 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="103">
@@ -3079,7 +3079,7 @@
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="104">
@@ -3093,7 +3093,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="105">
@@ -3107,7 +3107,7 @@
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
@@ -3121,7 +3121,7 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="107">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3149,7 +3149,7 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
@@ -3163,7 +3163,7 @@
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="110">
@@ -3177,7 +3177,7 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="111">
@@ -3191,7 +3191,7 @@
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="112">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="113">
@@ -3219,7 +3219,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="114">
@@ -3247,7 +3247,7 @@
         <v>2015</v>
       </c>
       <c r="D115" t="n">
-        <v>9.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="116">
@@ -3261,7 +3261,7 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="117">
@@ -3275,7 +3275,7 @@
         <v>2015</v>
       </c>
       <c r="D117" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="118">
@@ -3289,7 +3289,7 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="119">
@@ -3303,7 +3303,7 @@
         <v>2015</v>
       </c>
       <c r="D119" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="120">
@@ -3317,7 +3317,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
@@ -3331,7 +3331,7 @@
         <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="122">
@@ -3345,7 +3345,7 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3359,7 +3359,7 @@
         <v>2015</v>
       </c>
       <c r="D123" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="124">
@@ -3373,7 +3373,7 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="125">
@@ -3387,7 +3387,7 @@
         <v>2015</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="126">
@@ -3401,7 +3401,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="127">
@@ -3415,7 +3415,7 @@
         <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
@@ -3429,7 +3429,7 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>5.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="129">
@@ -3443,7 +3443,7 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
@@ -3457,7 +3457,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="131">
@@ -3471,7 +3471,7 @@
         <v>2015</v>
       </c>
       <c r="D131" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="132">
@@ -3485,7 +3485,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="133">
@@ -3499,7 +3499,7 @@
         <v>2015</v>
       </c>
       <c r="D133" t="n">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
@@ -3513,7 +3513,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="135">
@@ -3527,7 +3527,7 @@
         <v>2015</v>
       </c>
       <c r="D135" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="136">
@@ -3555,7 +3555,7 @@
         <v>2015</v>
       </c>
       <c r="D137" t="n">
-        <v>3.7</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="138">
@@ -3569,7 +3569,7 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>9.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="139">
@@ -3583,7 +3583,7 @@
         <v>2015</v>
       </c>
       <c r="D139" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="140">
@@ -3597,7 +3597,7 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3611,7 +3611,7 @@
         <v>2015</v>
       </c>
       <c r="D141" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="142">
@@ -3625,7 +3625,7 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="143">
@@ -3639,7 +3639,7 @@
         <v>2015</v>
       </c>
       <c r="D143" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="144">
@@ -3653,7 +3653,7 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="145">
@@ -3667,7 +3667,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="146">
@@ -3681,7 +3681,7 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="147">
@@ -3695,7 +3695,7 @@
         <v>2015</v>
       </c>
       <c r="D147" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="148">
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3723,7 +3723,7 @@
         <v>2015</v>
       </c>
       <c r="D149" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="150">
@@ -3737,7 +3737,7 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="151">
@@ -3751,7 +3751,7 @@
         <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="152">
@@ -3779,7 +3779,7 @@
         <v>2015</v>
       </c>
       <c r="D153" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="154">
@@ -3793,7 +3793,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3807,7 +3807,7 @@
         <v>2015</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="156">
@@ -3835,7 +3835,7 @@
         <v>2015</v>
       </c>
       <c r="D157" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="158">
@@ -3849,7 +3849,7 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="159">
@@ -3863,7 +3863,7 @@
         <v>2015</v>
       </c>
       <c r="D159" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="160">
@@ -3877,7 +3877,7 @@
         <v>2015</v>
       </c>
       <c r="D160" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="161">
@@ -3891,7 +3891,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="162">
@@ -3905,7 +3905,7 @@
         <v>2015</v>
       </c>
       <c r="D162" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="163">
@@ -3919,7 +3919,7 @@
         <v>2015</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="164">
@@ -3933,7 +3933,7 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="165">
@@ -3947,7 +3947,7 @@
         <v>2015</v>
       </c>
       <c r="D165" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
@@ -3961,7 +3961,7 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="167">
@@ -3975,7 +3975,7 @@
         <v>2015</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="168">
@@ -3989,7 +3989,7 @@
         <v>2015</v>
       </c>
       <c r="D168" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="169">
@@ -4003,7 +4003,7 @@
         <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="170">
@@ -4017,7 +4017,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="171">
@@ -4031,7 +4031,7 @@
         <v>2015</v>
       </c>
       <c r="D171" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="172">
@@ -4045,7 +4045,7 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="173">
@@ -4059,7 +4059,7 @@
         <v>2015</v>
       </c>
       <c r="D173" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="174">
@@ -4087,7 +4087,7 @@
         <v>2015</v>
       </c>
       <c r="D175" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="176">
@@ -4115,7 +4115,7 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
@@ -4129,7 +4129,7 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -4143,7 +4143,7 @@
         <v>2015</v>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="180">
@@ -4157,7 +4157,7 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="181">
@@ -4171,7 +4171,7 @@
         <v>2015</v>
       </c>
       <c r="D181" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="182">
@@ -4185,7 +4185,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4199,7 +4199,7 @@
         <v>2015</v>
       </c>
       <c r="D183" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="184">
@@ -4213,7 +4213,7 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="185">
@@ -4227,7 +4227,7 @@
         <v>2015</v>
       </c>
       <c r="D185" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="186">
@@ -4241,7 +4241,7 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="187">
@@ -4269,7 +4269,7 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="189">
@@ -4283,7 +4283,7 @@
         <v>2015</v>
       </c>
       <c r="D189" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="190">
@@ -4297,7 +4297,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="191">
@@ -4347,6 +4347,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4354,79 +4357,109 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.9</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.9</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.7</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>3.5</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.8</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.9</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>2.5</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>4.4</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4434,23 +4467,32 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>3.5</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -4458,183 +4500,252 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.6</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>2.4</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>3.2</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.2</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>2.7</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>3.9</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.2</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>3.8</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>4.1</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>3.4</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>4.7</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>2.5</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.5</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>4.4</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>6.1</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>3.2</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>1.1</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>1.3</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>2.2</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>1.5</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>7.2</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>2.6</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.9</v>
       </c>
     </row>
@@ -4642,7 +4753,10 @@
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>5.8</v>
       </c>
     </row>
@@ -4650,63 +4764,87 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>4.9</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>4.9</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>2</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>2.5</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>2</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.8</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>4.6</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4714,47 +4852,65 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>2.2</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>7.1</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>3.2</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>7</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.6</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -4762,87 +4918,120 @@
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>2.8</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>4.1</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>4.2</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>6.8</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>1.4</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>3.1</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>1.4</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>2.1</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>3.4</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -4850,15 +5039,21 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>1.5</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4866,39 +5061,54 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>1.2</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>4.3</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>6.8</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -4906,7 +5116,10 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -4914,111 +5127,153 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>5.3</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>3.2</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>6.1</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>2.9</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>7.5</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>1.9</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>3.1</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>8.2</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>3.5</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>7</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>1.4</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>3.4</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>5.1</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5026,15 +5281,21 @@
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>8.4</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -5042,215 +5303,296 @@
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>5.4</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>5</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>1.5</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>1.9</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>5.2</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>3.4</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>4.2</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>1.9</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>3.6</v>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>4.7</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>4.7</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>4.8</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>1.9</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>6.4</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.9</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>2</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>1.4</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>0.7</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>4.5</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>2.9</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>3.8</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>2.4</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>5.6</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>0.6</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>2.8</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -5258,175 +5600,241 @@
       <c r="A115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="n">
-        <v>9.1</v>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="n">
-        <v>2.8</v>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="n">
-        <v>3.9</v>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="n">
-        <v>0</v>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="n">
-        <v>5.7</v>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="n">
-        <v>0.3</v>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="n">
-        <v>3.3</v>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="n">
-        <v>7.5</v>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="n">
-        <v>3.4</v>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="n">
-        <v>5.6</v>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="n">
-        <v>2.7</v>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>252</v>
       </c>
-      <c r="B126" t="n">
-        <v>3.1</v>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="n">
-        <v>2.4</v>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="n">
-        <v>5.3</v>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>258</v>
       </c>
-      <c r="B129" t="n">
-        <v>2</v>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="n">
-        <v>0.2</v>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="n">
-        <v>6.8</v>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>264</v>
       </c>
-      <c r="B132" t="n">
-        <v>1.1</v>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>266</v>
       </c>
-      <c r="B133" t="n">
-        <v>6.9</v>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
         <v>268</v>
       </c>
-      <c r="B134" t="n">
-        <v>3.4</v>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>270</v>
       </c>
-      <c r="B135" t="n">
-        <v>3.2</v>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
         <v>272</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="n">
         <v>7.7</v>
       </c>
     </row>
@@ -5434,127 +5842,175 @@
       <c r="A137" t="s">
         <v>274</v>
       </c>
-      <c r="B137" t="n">
-        <v>3.7</v>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
         <v>276</v>
       </c>
-      <c r="B138" t="n">
-        <v>9.3</v>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
         <v>278</v>
       </c>
-      <c r="B139" t="n">
-        <v>7.1</v>
+      <c r="B139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
         <v>280</v>
       </c>
-      <c r="B140" t="n">
-        <v>2.3</v>
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>282</v>
       </c>
-      <c r="B141" t="n">
-        <v>2.4</v>
+      <c r="B141" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>284</v>
       </c>
-      <c r="B142" t="n">
-        <v>2.9</v>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>286</v>
       </c>
-      <c r="B143" t="n">
-        <v>2.3</v>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
         <v>288</v>
       </c>
-      <c r="B144" t="n">
-        <v>2.8</v>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
         <v>290</v>
       </c>
-      <c r="B145" t="n">
-        <v>1</v>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
         <v>292</v>
       </c>
-      <c r="B146" t="n">
-        <v>4.8</v>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
         <v>294</v>
       </c>
-      <c r="B147" t="n">
-        <v>4.4</v>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>296</v>
       </c>
-      <c r="B148" t="n">
-        <v>4.7</v>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>298</v>
       </c>
-      <c r="B149" t="n">
-        <v>2.9</v>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
         <v>300</v>
       </c>
-      <c r="B150" t="n">
-        <v>1.9</v>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" t="n">
-        <v>4.7</v>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>304</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5562,31 +6018,43 @@
       <c r="A153" t="s">
         <v>306</v>
       </c>
-      <c r="B153" t="n">
-        <v>4.2</v>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>308</v>
       </c>
-      <c r="B154" t="n">
-        <v>0.9</v>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
         <v>310</v>
       </c>
-      <c r="B155" t="n">
-        <v>0</v>
+      <c r="B155" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
         <v>312</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -5594,143 +6062,197 @@
       <c r="A157" t="s">
         <v>314</v>
       </c>
-      <c r="B157" t="n">
-        <v>2.7</v>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
         <v>316</v>
       </c>
-      <c r="B158" t="n">
-        <v>1.2</v>
+      <c r="B158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
         <v>318</v>
       </c>
-      <c r="B159" t="n">
-        <v>2.8</v>
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>320</v>
       </c>
-      <c r="B160" t="n">
-        <v>5.6</v>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
         <v>322</v>
       </c>
-      <c r="B161" t="n">
-        <v>1.1</v>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
         <v>324</v>
       </c>
-      <c r="B162" t="n">
-        <v>2.9</v>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
         <v>326</v>
       </c>
-      <c r="B163" t="n">
-        <v>0</v>
+      <c r="B163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
         <v>328</v>
       </c>
-      <c r="B164" t="n">
-        <v>5.9</v>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
         <v>330</v>
       </c>
-      <c r="B165" t="n">
-        <v>4.4</v>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
         <v>332</v>
       </c>
-      <c r="B166" t="n">
-        <v>1.7</v>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
         <v>334</v>
       </c>
-      <c r="B167" t="n">
-        <v>3</v>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
         <v>336</v>
       </c>
-      <c r="B168" t="n">
-        <v>1.2</v>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
         <v>338</v>
       </c>
-      <c r="B169" t="n">
-        <v>5.9</v>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
         <v>340</v>
       </c>
-      <c r="B170" t="n">
-        <v>5.5</v>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>342</v>
       </c>
-      <c r="B171" t="n">
-        <v>4.9</v>
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
         <v>344</v>
       </c>
-      <c r="B172" t="n">
-        <v>4</v>
+      <c r="B172" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
         <v>346</v>
       </c>
-      <c r="B173" t="n">
-        <v>2.4</v>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>348</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -5738,15 +6260,21 @@
       <c r="A175" t="s">
         <v>350</v>
       </c>
-      <c r="B175" t="n">
-        <v>6.7</v>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
         <v>352</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -5754,87 +6282,120 @@
       <c r="A177" t="s">
         <v>354</v>
       </c>
-      <c r="B177" t="n">
-        <v>0.3</v>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
         <v>356</v>
       </c>
-      <c r="B178" t="n">
-        <v>4.1</v>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>358</v>
       </c>
-      <c r="B179" t="n">
-        <v>3</v>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
         <v>360</v>
       </c>
-      <c r="B180" t="n">
-        <v>3.2</v>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
         <v>362</v>
       </c>
-      <c r="B181" t="n">
-        <v>7.6</v>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
         <v>364</v>
       </c>
-      <c r="B182" t="n">
-        <v>1.7</v>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
         <v>366</v>
       </c>
-      <c r="B183" t="n">
-        <v>5.9</v>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
         <v>368</v>
       </c>
-      <c r="B184" t="n">
-        <v>1.7</v>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
         <v>370</v>
       </c>
-      <c r="B185" t="n">
-        <v>4.1</v>
+      <c r="B185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
         <v>372</v>
       </c>
-      <c r="B186" t="n">
-        <v>7.7</v>
+      <c r="B186" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
         <v>374</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" t="n">
         <v>5.4</v>
       </c>
     </row>
@@ -5842,31 +6403,43 @@
       <c r="A188" t="s">
         <v>376</v>
       </c>
-      <c r="B188" t="n">
-        <v>2.3</v>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
         <v>378</v>
       </c>
-      <c r="B189" t="n">
-        <v>2.1</v>
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
         <v>380</v>
       </c>
-      <c r="B190" t="n">
-        <v>3.4</v>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
         <v>382</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5874,7 +6447,10 @@
       <c r="A192" t="s">
         <v>384</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 64</t>
+    <t xml:space="preserve">Source: 65</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 65</t>
+    <t xml:space="preserve">Source: 67</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 64</t>
+    <t xml:space="preserve">Source: 67</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/natural-hazard/natural-hazard.xlsx
+++ b/user-data/natural-hazard/natural-hazard.xlsx
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 67</t>
+    <t xml:space="preserve">Source: 66</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
